--- a/addressbook-web-tests/addressbook-web-tests/groups.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/groups.xlsx
@@ -16,21 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Y(W%7OM3</t>
-  </si>
-  <si>
-    <t>-M5</t>
-  </si>
-  <si>
-    <t>&gt;+H@:&gt; .</t>
-  </si>
-  <si>
-    <t>,^</t>
-  </si>
-  <si>
-    <t>E(!OY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>MAW2Oz</t>
+  </si>
+  <si>
+    <t>8I6KaLVB</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>j8IxI</t>
+  </si>
+  <si>
+    <t>QWxaOF7u7</t>
+  </si>
+  <si>
+    <t>4lbVn44D6</t>
   </si>
 </sst>
 </file>
@@ -393,8 +396,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
